--- a/optimize/Axiory/covid/MA45/NIKKEI/M5/summary_NIKKEI_M5_MA45_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA45/NIKKEI/M5/summary_NIKKEI_M5_MA45_2020_1.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>atr_window</t>
+    <t>supertrend.atr_window</t>
   </si>
   <si>
-    <t>atr_multiply</t>
+    <t>supertrend.atr_multiply</t>
   </si>
   <si>
-    <t>ma_wndow</t>
+    <t>supertrend.ma_window</t>
+  </si>
+  <si>
+    <t>supertrend.filter_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_window</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_threshold</t>
   </si>
   <si>
     <t>n</t>
@@ -392,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +432,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,16 +459,28 @@
         <v>45</v>
       </c>
       <c r="E2">
-        <v>2095</v>
+        <v>384</v>
       </c>
       <c r="F2">
-        <v>7360</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0.5665871121718377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>2094</v>
+      </c>
+      <c r="J2">
+        <v>7370</v>
+      </c>
+      <c r="K2">
+        <v>0.5668576886341929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,16 +494,28 @@
         <v>45</v>
       </c>
       <c r="E3">
-        <v>1525</v>
+        <v>384</v>
       </c>
       <c r="F3">
-        <v>6048</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>0.5514754098360656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>1524</v>
+      </c>
+      <c r="J3">
+        <v>6058</v>
+      </c>
+      <c r="K3">
+        <v>0.5518372703412073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,16 +529,28 @@
         <v>45</v>
       </c>
       <c r="E4">
-        <v>1194</v>
+        <v>384</v>
       </c>
       <c r="F4">
-        <v>2690</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0.5343383584589615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>1193</v>
+      </c>
+      <c r="J4">
+        <v>2700</v>
+      </c>
+      <c r="K4">
+        <v>0.5347862531433362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,16 +564,28 @@
         <v>45</v>
       </c>
       <c r="E5">
-        <v>966</v>
+        <v>384</v>
       </c>
       <c r="F5">
-        <v>3354</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.5279503105590062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>965</v>
+      </c>
+      <c r="J5">
+        <v>3364</v>
+      </c>
+      <c r="K5">
+        <v>0.5284974093264249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -527,16 +599,28 @@
         <v>45</v>
       </c>
       <c r="E6">
-        <v>760</v>
+        <v>384</v>
       </c>
       <c r="F6">
-        <v>846</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.4960526315789474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>759</v>
+      </c>
+      <c r="J6">
+        <v>856</v>
+      </c>
+      <c r="K6">
+        <v>0.4967061923583663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,16 +634,28 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <v>608</v>
+        <v>384</v>
       </c>
       <c r="F7">
-        <v>4110</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>0.4967105263157895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>607</v>
+      </c>
+      <c r="J7">
+        <v>4120</v>
+      </c>
+      <c r="K7">
+        <v>0.4975288303130148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -573,16 +669,28 @@
         <v>45</v>
       </c>
       <c r="E8">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="F8">
-        <v>6752</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>0.486815415821501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>492</v>
+      </c>
+      <c r="J8">
+        <v>6762</v>
+      </c>
+      <c r="K8">
+        <v>0.4878048780487805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -596,16 +704,28 @@
         <v>45</v>
       </c>
       <c r="E9">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F9">
-        <v>-6604</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>0.4518518518518518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>404</v>
+      </c>
+      <c r="J9">
+        <v>-6594</v>
+      </c>
+      <c r="K9">
+        <v>0.452970297029703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,16 +739,28 @@
         <v>45</v>
       </c>
       <c r="E10">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="F10">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>0.4336283185840708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>338</v>
+      </c>
+      <c r="J10">
+        <v>290</v>
+      </c>
+      <c r="K10">
+        <v>0.4349112426035503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -642,16 +774,28 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <v>2103</v>
+        <v>384</v>
       </c>
       <c r="F11">
-        <v>6166</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>0.5568235853542558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>2102</v>
+      </c>
+      <c r="J11">
+        <v>6176</v>
+      </c>
+      <c r="K11">
+        <v>0.5570884871550904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -665,16 +809,28 @@
         <v>45</v>
       </c>
       <c r="E12">
-        <v>1513</v>
+        <v>384</v>
       </c>
       <c r="F12">
-        <v>2536</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>0.534699272967614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>1512</v>
+      </c>
+      <c r="J12">
+        <v>2546</v>
+      </c>
+      <c r="K12">
+        <v>0.53505291005291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -688,16 +844,28 @@
         <v>45</v>
       </c>
       <c r="E13">
-        <v>1204</v>
+        <v>384</v>
       </c>
       <c r="F13">
-        <v>3230</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>0.5274086378737541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>1203</v>
+      </c>
+      <c r="J13">
+        <v>3240</v>
+      </c>
+      <c r="K13">
+        <v>0.5278470490440565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -711,16 +879,28 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>938</v>
+        <v>384</v>
       </c>
       <c r="F14">
-        <v>3550</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>0.5341151385927505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>937</v>
+      </c>
+      <c r="J14">
+        <v>3560</v>
+      </c>
+      <c r="K14">
+        <v>0.5346851654215582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -734,16 +914,28 @@
         <v>45</v>
       </c>
       <c r="E15">
-        <v>740</v>
+        <v>384</v>
       </c>
       <c r="F15">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>0.5162162162162162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>739</v>
+      </c>
+      <c r="J15">
+        <v>192</v>
+      </c>
+      <c r="K15">
+        <v>0.516914749661705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -757,16 +949,28 @@
         <v>45</v>
       </c>
       <c r="E16">
-        <v>596</v>
+        <v>384</v>
       </c>
       <c r="F16">
-        <v>-442</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>0.5016778523489933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>595</v>
+      </c>
+      <c r="J16">
+        <v>-432</v>
+      </c>
+      <c r="K16">
+        <v>0.5025210084033613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -780,16 +984,28 @@
         <v>45</v>
       </c>
       <c r="E17">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="F17">
-        <v>2202</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>0.4900662251655629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>452</v>
+      </c>
+      <c r="J17">
+        <v>2212</v>
+      </c>
+      <c r="K17">
+        <v>0.4911504424778761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -803,16 +1019,28 @@
         <v>45</v>
       </c>
       <c r="E18">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="F18">
-        <v>3276</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>0.4519774011299435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>353</v>
+      </c>
+      <c r="J18">
+        <v>3286</v>
+      </c>
+      <c r="K18">
+        <v>0.453257790368272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -826,16 +1054,28 @@
         <v>45</v>
       </c>
       <c r="E19">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="F19">
-        <v>2928</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>0.4584837545126354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>276</v>
+      </c>
+      <c r="J19">
+        <v>2938</v>
+      </c>
+      <c r="K19">
+        <v>0.4601449275362319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -849,16 +1089,28 @@
         <v>45</v>
       </c>
       <c r="E20">
-        <v>2091</v>
+        <v>384</v>
       </c>
       <c r="F20">
-        <v>3596</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>0.5538020086083214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>2090</v>
+      </c>
+      <c r="J20">
+        <v>3606</v>
+      </c>
+      <c r="K20">
+        <v>0.554066985645933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -872,16 +1124,28 @@
         <v>45</v>
       </c>
       <c r="E21">
-        <v>1515</v>
+        <v>384</v>
       </c>
       <c r="F21">
-        <v>2594</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>0.5234323432343234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>1514</v>
+      </c>
+      <c r="J21">
+        <v>2604</v>
+      </c>
+      <c r="K21">
+        <v>0.5237780713342141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -895,16 +1159,28 @@
         <v>45</v>
       </c>
       <c r="E22">
-        <v>1174</v>
+        <v>384</v>
       </c>
       <c r="F22">
-        <v>3824</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>0.5255536626916525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>1173</v>
+      </c>
+      <c r="J22">
+        <v>3834</v>
+      </c>
+      <c r="K22">
+        <v>0.526001705029838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -918,16 +1194,28 @@
         <v>45</v>
       </c>
       <c r="E23">
-        <v>910</v>
+        <v>384</v>
       </c>
       <c r="F23">
-        <v>-936</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>0.5054945054945055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>909</v>
+      </c>
+      <c r="J23">
+        <v>-926</v>
+      </c>
+      <c r="K23">
+        <v>0.506050605060506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -941,16 +1229,28 @@
         <v>45</v>
       </c>
       <c r="E24">
-        <v>736</v>
+        <v>384</v>
       </c>
       <c r="F24">
-        <v>590</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>0.5149456521739131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>735</v>
+      </c>
+      <c r="J24">
+        <v>600</v>
+      </c>
+      <c r="K24">
+        <v>0.5156462585034014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -964,16 +1264,28 @@
         <v>45</v>
       </c>
       <c r="E25">
-        <v>582</v>
+        <v>384</v>
       </c>
       <c r="F25">
-        <v>2582</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>0.493127147766323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>581</v>
+      </c>
+      <c r="J25">
+        <v>2592</v>
+      </c>
+      <c r="K25">
+        <v>0.4939759036144578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -987,16 +1299,28 @@
         <v>45</v>
       </c>
       <c r="E26">
-        <v>463</v>
+        <v>384</v>
       </c>
       <c r="F26">
-        <v>3042</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>0.4773218142548596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>462</v>
+      </c>
+      <c r="J26">
+        <v>3052</v>
+      </c>
+      <c r="K26">
+        <v>0.4783549783549784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1010,16 +1334,28 @@
         <v>45</v>
       </c>
       <c r="E27">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="F27">
-        <v>1548</v>
+        <v>40</v>
       </c>
       <c r="G27">
-        <v>0.4685714285714286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>349</v>
+      </c>
+      <c r="J27">
+        <v>1558</v>
+      </c>
+      <c r="K27">
+        <v>0.4699140401146132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1033,16 +1369,28 @@
         <v>45</v>
       </c>
       <c r="E28">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="F28">
-        <v>9566</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>0.4734982332155477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>282</v>
+      </c>
+      <c r="J28">
+        <v>9576</v>
+      </c>
+      <c r="K28">
+        <v>0.475177304964539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1056,16 +1404,28 @@
         <v>45</v>
       </c>
       <c r="E29">
-        <v>2083</v>
+        <v>384</v>
       </c>
       <c r="F29">
-        <v>3132</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>0.5511281805088815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>2082</v>
+      </c>
+      <c r="J29">
+        <v>3142</v>
+      </c>
+      <c r="K29">
+        <v>0.5513928914505284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1079,16 +1439,28 @@
         <v>45</v>
       </c>
       <c r="E30">
-        <v>1505</v>
+        <v>384</v>
       </c>
       <c r="F30">
-        <v>4946</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>0.5421926910299003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>1504</v>
+      </c>
+      <c r="J30">
+        <v>4956</v>
+      </c>
+      <c r="K30">
+        <v>0.5425531914893617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1102,16 +1474,28 @@
         <v>45</v>
       </c>
       <c r="E31">
-        <v>1169</v>
+        <v>384</v>
       </c>
       <c r="F31">
-        <v>4298</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0.5278015397775877</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>1168</v>
+      </c>
+      <c r="J31">
+        <v>4308</v>
+      </c>
+      <c r="K31">
+        <v>0.5282534246575342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1125,16 +1509,28 @@
         <v>45</v>
       </c>
       <c r="E32">
-        <v>916</v>
+        <v>384</v>
       </c>
       <c r="F32">
-        <v>5112</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>0.527292576419214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>915</v>
+      </c>
+      <c r="J32">
+        <v>5122</v>
+      </c>
+      <c r="K32">
+        <v>0.5278688524590164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1148,16 +1544,28 @@
         <v>45</v>
       </c>
       <c r="E33">
-        <v>708</v>
+        <v>384</v>
       </c>
       <c r="F33">
-        <v>5640</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>0.5282485875706214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>707</v>
+      </c>
+      <c r="J33">
+        <v>5650</v>
+      </c>
+      <c r="K33">
+        <v>0.5289957567185289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1171,16 +1579,28 @@
         <v>45</v>
       </c>
       <c r="E34">
-        <v>598</v>
+        <v>384</v>
       </c>
       <c r="F34">
-        <v>2370</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>0.4966555183946488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>597</v>
+      </c>
+      <c r="J34">
+        <v>2380</v>
+      </c>
+      <c r="K34">
+        <v>0.4974874371859296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1194,16 +1614,28 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>461</v>
+        <v>384</v>
       </c>
       <c r="F35">
-        <v>1778</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>0.4685466377440347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
+        <v>460</v>
+      </c>
+      <c r="J35">
+        <v>1788</v>
+      </c>
+      <c r="K35">
+        <v>0.4695652173913044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1217,16 +1649,28 @@
         <v>45</v>
       </c>
       <c r="E36">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="F36">
-        <v>11966</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>0.5138121546961326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>361</v>
+      </c>
+      <c r="J36">
+        <v>11976</v>
+      </c>
+      <c r="K36">
+        <v>0.5152354570637119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1240,16 +1684,28 @@
         <v>45</v>
       </c>
       <c r="E37">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="F37">
-        <v>15000</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>0.4794520547945205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>291</v>
+      </c>
+      <c r="J37">
+        <v>15010</v>
+      </c>
+      <c r="K37">
+        <v>0.4810996563573883</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1263,16 +1719,28 @@
         <v>45</v>
       </c>
       <c r="E38">
-        <v>2063</v>
+        <v>384</v>
       </c>
       <c r="F38">
-        <v>3504</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>0.5501696558410082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>2062</v>
+      </c>
+      <c r="J38">
+        <v>3514</v>
+      </c>
+      <c r="K38">
+        <v>0.5504364694471388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1286,16 +1754,28 @@
         <v>45</v>
       </c>
       <c r="E39">
-        <v>1519</v>
+        <v>384</v>
       </c>
       <c r="F39">
-        <v>2550</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>0.5345622119815668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>1518</v>
+      </c>
+      <c r="J39">
+        <v>2560</v>
+      </c>
+      <c r="K39">
+        <v>0.5349143610013175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1309,16 +1789,28 @@
         <v>45</v>
       </c>
       <c r="E40">
-        <v>1162</v>
+        <v>384</v>
       </c>
       <c r="F40">
-        <v>3584</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>0.5301204819277109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>1161</v>
+      </c>
+      <c r="J40">
+        <v>3594</v>
+      </c>
+      <c r="K40">
+        <v>0.5305770887166236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1332,16 +1824,28 @@
         <v>45</v>
       </c>
       <c r="E41">
-        <v>910</v>
+        <v>384</v>
       </c>
       <c r="F41">
-        <v>4826</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>0.5208791208791209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>0.2</v>
+      </c>
+      <c r="I41">
+        <v>909</v>
+      </c>
+      <c r="J41">
+        <v>4836</v>
+      </c>
+      <c r="K41">
+        <v>0.5214521452145214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1355,16 +1859,28 @@
         <v>45</v>
       </c>
       <c r="E42">
-        <v>718</v>
+        <v>384</v>
       </c>
       <c r="F42">
-        <v>6968</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>0.5250696378830083</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>717</v>
+      </c>
+      <c r="J42">
+        <v>6978</v>
+      </c>
+      <c r="K42">
+        <v>0.5258019525801952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1378,16 +1894,28 @@
         <v>45</v>
       </c>
       <c r="E43">
-        <v>583</v>
+        <v>384</v>
       </c>
       <c r="F43">
-        <v>3422</v>
+        <v>40</v>
       </c>
       <c r="G43">
-        <v>0.5077186963979416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>582</v>
+      </c>
+      <c r="J43">
+        <v>3432</v>
+      </c>
+      <c r="K43">
+        <v>0.5085910652920962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1401,16 +1929,28 @@
         <v>45</v>
       </c>
       <c r="E44">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="F44">
-        <v>1382</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>0.4605543710021322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>0.2</v>
+      </c>
+      <c r="I44">
+        <v>468</v>
+      </c>
+      <c r="J44">
+        <v>1392</v>
+      </c>
+      <c r="K44">
+        <v>0.4615384615384616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1424,16 +1964,28 @@
         <v>45</v>
       </c>
       <c r="E45">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F45">
-        <v>10852</v>
+        <v>40</v>
       </c>
       <c r="G45">
-        <v>0.4930362116991643</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>358</v>
+      </c>
+      <c r="J45">
+        <v>10862</v>
+      </c>
+      <c r="K45">
+        <v>0.4944134078212291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1447,16 +1999,28 @@
         <v>45</v>
       </c>
       <c r="E46">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="F46">
-        <v>16672</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>0.5135135135135135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>295</v>
+      </c>
+      <c r="J46">
+        <v>16682</v>
+      </c>
+      <c r="K46">
+        <v>0.5152542372881356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1470,16 +2034,28 @@
         <v>45</v>
       </c>
       <c r="E47">
-        <v>2041</v>
+        <v>384</v>
       </c>
       <c r="F47">
-        <v>3942</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>0.5595296423321902</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47">
+        <v>2040</v>
+      </c>
+      <c r="J47">
+        <v>3952</v>
+      </c>
+      <c r="K47">
+        <v>0.5598039215686275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1493,16 +2069,28 @@
         <v>45</v>
       </c>
       <c r="E48">
-        <v>1509</v>
+        <v>384</v>
       </c>
       <c r="F48">
-        <v>2286</v>
+        <v>40</v>
       </c>
       <c r="G48">
-        <v>0.5387673956262425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>1508</v>
+      </c>
+      <c r="J48">
+        <v>2296</v>
+      </c>
+      <c r="K48">
+        <v>0.5391246684350133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1516,16 +2104,28 @@
         <v>45</v>
       </c>
       <c r="E49">
-        <v>1162</v>
+        <v>384</v>
       </c>
       <c r="F49">
-        <v>2032</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>0.5301204819277109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <v>1161</v>
+      </c>
+      <c r="J49">
+        <v>2042</v>
+      </c>
+      <c r="K49">
+        <v>0.5305770887166236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1539,16 +2139,28 @@
         <v>45</v>
       </c>
       <c r="E50">
-        <v>910</v>
+        <v>384</v>
       </c>
       <c r="F50">
-        <v>4812</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>0.5109890109890109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>909</v>
+      </c>
+      <c r="J50">
+        <v>4822</v>
+      </c>
+      <c r="K50">
+        <v>0.5115511551155115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1562,16 +2174,28 @@
         <v>45</v>
       </c>
       <c r="E51">
-        <v>708</v>
+        <v>384</v>
       </c>
       <c r="F51">
-        <v>4424</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>0.5324858757062146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
+        <v>707</v>
+      </c>
+      <c r="J51">
+        <v>4434</v>
+      </c>
+      <c r="K51">
+        <v>0.5332390381895332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1585,16 +2209,28 @@
         <v>45</v>
       </c>
       <c r="E52">
-        <v>589</v>
+        <v>384</v>
       </c>
       <c r="F52">
-        <v>1434</v>
+        <v>40</v>
       </c>
       <c r="G52">
-        <v>0.5042444821731749</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>0.2</v>
+      </c>
+      <c r="I52">
+        <v>588</v>
+      </c>
+      <c r="J52">
+        <v>1444</v>
+      </c>
+      <c r="K52">
+        <v>0.5051020408163265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1608,16 +2244,28 @@
         <v>45</v>
       </c>
       <c r="E53">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F53">
-        <v>-2796</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>0.4549266247379455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>476</v>
+      </c>
+      <c r="J53">
+        <v>-2786</v>
+      </c>
+      <c r="K53">
+        <v>0.4558823529411765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1631,16 +2279,28 @@
         <v>45</v>
       </c>
       <c r="E54">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F54">
-        <v>6426</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>0.4959568733153639</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>0.2</v>
+      </c>
+      <c r="I54">
+        <v>370</v>
+      </c>
+      <c r="J54">
+        <v>6436</v>
+      </c>
+      <c r="K54">
+        <v>0.4972972972972973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1654,16 +2314,28 @@
         <v>45</v>
       </c>
       <c r="E55">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="F55">
-        <v>14048</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>0.5084745762711864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>294</v>
+      </c>
+      <c r="J55">
+        <v>14058</v>
+      </c>
+      <c r="K55">
+        <v>0.5102040816326531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1677,16 +2349,28 @@
         <v>45</v>
       </c>
       <c r="E56">
-        <v>2031</v>
+        <v>384</v>
       </c>
       <c r="F56">
-        <v>5320</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>0.5632693254554406</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>2030</v>
+      </c>
+      <c r="J56">
+        <v>5330</v>
+      </c>
+      <c r="K56">
+        <v>0.5635467980295567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1700,16 +2384,28 @@
         <v>45</v>
       </c>
       <c r="E57">
-        <v>1503</v>
+        <v>384</v>
       </c>
       <c r="F57">
-        <v>2098</v>
+        <v>40</v>
       </c>
       <c r="G57">
-        <v>0.5335994677312043</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
+      </c>
+      <c r="I57">
+        <v>1502</v>
+      </c>
+      <c r="J57">
+        <v>2108</v>
+      </c>
+      <c r="K57">
+        <v>0.5339547270306259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1723,16 +2419,28 @@
         <v>45</v>
       </c>
       <c r="E58">
-        <v>1142</v>
+        <v>384</v>
       </c>
       <c r="F58">
-        <v>2920</v>
+        <v>40</v>
       </c>
       <c r="G58">
-        <v>0.5166374781085814</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>0.2</v>
+      </c>
+      <c r="I58">
+        <v>1141</v>
+      </c>
+      <c r="J58">
+        <v>2930</v>
+      </c>
+      <c r="K58">
+        <v>0.5170902716914987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1746,16 +2454,28 @@
         <v>45</v>
       </c>
       <c r="E59">
-        <v>908</v>
+        <v>384</v>
       </c>
       <c r="F59">
-        <v>6310</v>
+        <v>40</v>
       </c>
       <c r="G59">
-        <v>0.5242290748898678</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H59">
+        <v>0.2</v>
+      </c>
+      <c r="I59">
+        <v>907</v>
+      </c>
+      <c r="J59">
+        <v>6320</v>
+      </c>
+      <c r="K59">
+        <v>0.5248070562293274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1769,16 +2489,28 @@
         <v>45</v>
       </c>
       <c r="E60">
-        <v>702</v>
+        <v>384</v>
       </c>
       <c r="F60">
-        <v>7596</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>0.5284900284900285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="I60">
+        <v>701</v>
+      </c>
+      <c r="J60">
+        <v>7606</v>
+      </c>
+      <c r="K60">
+        <v>0.5292439372325249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1792,16 +2524,28 @@
         <v>45</v>
       </c>
       <c r="E61">
-        <v>591</v>
+        <v>384</v>
       </c>
       <c r="F61">
-        <v>6384</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>0.5414551607445008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>590</v>
+      </c>
+      <c r="J61">
+        <v>6394</v>
+      </c>
+      <c r="K61">
+        <v>0.5423728813559322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1815,16 +2559,28 @@
         <v>45</v>
       </c>
       <c r="E62">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="F62">
-        <v>-4560</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>0.4467640918580376</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <v>478</v>
+      </c>
+      <c r="J62">
+        <v>-4550</v>
+      </c>
+      <c r="K62">
+        <v>0.4476987447698745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1838,16 +2594,28 @@
         <v>45</v>
       </c>
       <c r="E63">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F63">
-        <v>7714</v>
+        <v>40</v>
       </c>
       <c r="G63">
-        <v>0.5094339622641509</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <v>370</v>
+      </c>
+      <c r="J63">
+        <v>7724</v>
+      </c>
+      <c r="K63">
+        <v>0.5108108108108108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1861,16 +2629,28 @@
         <v>45</v>
       </c>
       <c r="E64">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="F64">
-        <v>10310</v>
+        <v>40</v>
       </c>
       <c r="G64">
-        <v>0.5050167224080268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>298</v>
+      </c>
+      <c r="J64">
+        <v>10320</v>
+      </c>
+      <c r="K64">
+        <v>0.5067114093959731</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1884,16 +2664,28 @@
         <v>45</v>
       </c>
       <c r="E65">
-        <v>2035</v>
+        <v>384</v>
       </c>
       <c r="F65">
-        <v>6178</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>0.5626535626535627</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="I65">
+        <v>2034</v>
+      </c>
+      <c r="J65">
+        <v>6188</v>
+      </c>
+      <c r="K65">
+        <v>0.5629301868239921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1907,16 +2699,28 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>1497</v>
+        <v>384</v>
       </c>
       <c r="F66">
-        <v>4522</v>
+        <v>40</v>
       </c>
       <c r="G66">
-        <v>0.541750167000668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>0.2</v>
+      </c>
+      <c r="I66">
+        <v>1496</v>
+      </c>
+      <c r="J66">
+        <v>4532</v>
+      </c>
+      <c r="K66">
+        <v>0.5421122994652406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1930,16 +2734,28 @@
         <v>45</v>
       </c>
       <c r="E67">
-        <v>1138</v>
+        <v>384</v>
       </c>
       <c r="F67">
-        <v>1936</v>
+        <v>40</v>
       </c>
       <c r="G67">
-        <v>0.5061511423550088</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="I67">
+        <v>1137</v>
+      </c>
+      <c r="J67">
+        <v>1946</v>
+      </c>
+      <c r="K67">
+        <v>0.5065963060686016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1953,16 +2769,28 @@
         <v>45</v>
       </c>
       <c r="E68">
-        <v>908</v>
+        <v>384</v>
       </c>
       <c r="F68">
-        <v>6072</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>0.51431718061674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>0.2</v>
+      </c>
+      <c r="I68">
+        <v>907</v>
+      </c>
+      <c r="J68">
+        <v>6082</v>
+      </c>
+      <c r="K68">
+        <v>0.5148842337375965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1976,16 +2804,28 @@
         <v>45</v>
       </c>
       <c r="E69">
-        <v>712</v>
+        <v>384</v>
       </c>
       <c r="F69">
-        <v>4802</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>0.5182584269662921</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>0.2</v>
+      </c>
+      <c r="I69">
+        <v>711</v>
+      </c>
+      <c r="J69">
+        <v>4812</v>
+      </c>
+      <c r="K69">
+        <v>0.5189873417721519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1999,16 +2839,28 @@
         <v>45</v>
       </c>
       <c r="E70">
-        <v>591</v>
+        <v>384</v>
       </c>
       <c r="F70">
-        <v>5722</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>0.5126903553299492</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="I70">
+        <v>590</v>
+      </c>
+      <c r="J70">
+        <v>5732</v>
+      </c>
+      <c r="K70">
+        <v>0.5135593220338983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2022,16 +2874,28 @@
         <v>45</v>
       </c>
       <c r="E71">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="F71">
-        <v>-4396</v>
+        <v>40</v>
       </c>
       <c r="G71">
-        <v>0.4391752577319588</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>0.2</v>
+      </c>
+      <c r="I71">
+        <v>484</v>
+      </c>
+      <c r="J71">
+        <v>-4386</v>
+      </c>
+      <c r="K71">
+        <v>0.4400826446280992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2045,16 +2909,28 @@
         <v>45</v>
       </c>
       <c r="E72">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F72">
-        <v>4658</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>0.480719794344473</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>0.2</v>
+      </c>
+      <c r="I72">
+        <v>388</v>
+      </c>
+      <c r="J72">
+        <v>4668</v>
+      </c>
+      <c r="K72">
+        <v>0.4819587628865979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2068,16 +2944,28 @@
         <v>45</v>
       </c>
       <c r="E73">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="F73">
-        <v>7968</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>0.5048543689320388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>0.2</v>
+      </c>
+      <c r="I73">
+        <v>308</v>
+      </c>
+      <c r="J73">
+        <v>7978</v>
+      </c>
+      <c r="K73">
+        <v>0.5064935064935064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2091,16 +2979,28 @@
         <v>45</v>
       </c>
       <c r="E74">
-        <v>2031</v>
+        <v>384</v>
       </c>
       <c r="F74">
-        <v>5572</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>0.5563761693746923</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>0.2</v>
+      </c>
+      <c r="I74">
+        <v>2030</v>
+      </c>
+      <c r="J74">
+        <v>5582</v>
+      </c>
+      <c r="K74">
+        <v>0.5566502463054187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2114,16 +3014,28 @@
         <v>45</v>
       </c>
       <c r="E75">
-        <v>1491</v>
+        <v>384</v>
       </c>
       <c r="F75">
-        <v>2784</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>0.5318578135479544</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>0.2</v>
+      </c>
+      <c r="I75">
+        <v>1490</v>
+      </c>
+      <c r="J75">
+        <v>2794</v>
+      </c>
+      <c r="K75">
+        <v>0.5322147651006711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2137,16 +3049,28 @@
         <v>45</v>
       </c>
       <c r="E76">
-        <v>1141</v>
+        <v>384</v>
       </c>
       <c r="F76">
-        <v>1102</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>0.5118317265556529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>0.2</v>
+      </c>
+      <c r="I76">
+        <v>1140</v>
+      </c>
+      <c r="J76">
+        <v>1112</v>
+      </c>
+      <c r="K76">
+        <v>0.512280701754386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2160,16 +3084,28 @@
         <v>45</v>
       </c>
       <c r="E77">
-        <v>908</v>
+        <v>384</v>
       </c>
       <c r="F77">
-        <v>6432</v>
+        <v>40</v>
       </c>
       <c r="G77">
-        <v>0.5176211453744494</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <v>0.2</v>
+      </c>
+      <c r="I77">
+        <v>907</v>
+      </c>
+      <c r="J77">
+        <v>6442</v>
+      </c>
+      <c r="K77">
+        <v>0.5181918412348401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2183,16 +3119,28 @@
         <v>45</v>
       </c>
       <c r="E78">
-        <v>706</v>
+        <v>384</v>
       </c>
       <c r="F78">
-        <v>6316</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>0.5212464589235127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H78">
+        <v>0.2</v>
+      </c>
+      <c r="I78">
+        <v>705</v>
+      </c>
+      <c r="J78">
+        <v>6326</v>
+      </c>
+      <c r="K78">
+        <v>0.5219858156028369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2206,16 +3154,28 @@
         <v>45</v>
       </c>
       <c r="E79">
-        <v>582</v>
+        <v>384</v>
       </c>
       <c r="F79">
-        <v>5094</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>0.5051546391752577</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H79">
+        <v>0.2</v>
+      </c>
+      <c r="I79">
+        <v>581</v>
+      </c>
+      <c r="J79">
+        <v>5104</v>
+      </c>
+      <c r="K79">
+        <v>0.5060240963855421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2229,16 +3189,28 @@
         <v>45</v>
       </c>
       <c r="E80">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F80">
-        <v>-1794</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>0.4716981132075472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>0.2</v>
+      </c>
+      <c r="I80">
+        <v>476</v>
+      </c>
+      <c r="J80">
+        <v>-1784</v>
+      </c>
+      <c r="K80">
+        <v>0.4726890756302521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2252,16 +3224,28 @@
         <v>45</v>
       </c>
       <c r="E81">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F81">
-        <v>1484</v>
+        <v>40</v>
       </c>
       <c r="G81">
-        <v>0.4498714652956298</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <v>0.2</v>
+      </c>
+      <c r="I81">
+        <v>388</v>
+      </c>
+      <c r="J81">
+        <v>1494</v>
+      </c>
+      <c r="K81">
+        <v>0.4510309278350516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2275,16 +3259,28 @@
         <v>45</v>
       </c>
       <c r="E82">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="F82">
-        <v>9526</v>
+        <v>40</v>
       </c>
       <c r="G82">
-        <v>0.4984326018808777</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <v>0.2</v>
+      </c>
+      <c r="I82">
+        <v>318</v>
+      </c>
+      <c r="J82">
+        <v>9536</v>
+      </c>
+      <c r="K82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2298,16 +3294,28 @@
         <v>45</v>
       </c>
       <c r="E83">
-        <v>2045</v>
+        <v>384</v>
       </c>
       <c r="F83">
-        <v>6604</v>
+        <v>40</v>
       </c>
       <c r="G83">
-        <v>0.5603911980440098</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>0.2</v>
+      </c>
+      <c r="I83">
+        <v>2044</v>
+      </c>
+      <c r="J83">
+        <v>6614</v>
+      </c>
+      <c r="K83">
+        <v>0.5606653620352251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2321,16 +3329,28 @@
         <v>45</v>
       </c>
       <c r="E84">
-        <v>1480</v>
+        <v>384</v>
       </c>
       <c r="F84">
-        <v>4218</v>
+        <v>40</v>
       </c>
       <c r="G84">
-        <v>0.5378378378378378</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H84">
+        <v>0.2</v>
+      </c>
+      <c r="I84">
+        <v>1479</v>
+      </c>
+      <c r="J84">
+        <v>4228</v>
+      </c>
+      <c r="K84">
+        <v>0.5382014874915484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2344,16 +3364,28 @@
         <v>45</v>
       </c>
       <c r="E85">
-        <v>1147</v>
+        <v>384</v>
       </c>
       <c r="F85">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="G85">
-        <v>0.5039232781168265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>0.2</v>
+      </c>
+      <c r="I85">
+        <v>1146</v>
+      </c>
+      <c r="J85">
+        <v>322</v>
+      </c>
+      <c r="K85">
+        <v>0.5043630017452007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2367,16 +3399,28 @@
         <v>45</v>
       </c>
       <c r="E86">
-        <v>910</v>
+        <v>384</v>
       </c>
       <c r="F86">
-        <v>4578</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>0.5131868131868131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>0.2</v>
+      </c>
+      <c r="I86">
+        <v>909</v>
+      </c>
+      <c r="J86">
+        <v>4588</v>
+      </c>
+      <c r="K86">
+        <v>0.5137513751375138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2390,16 +3434,28 @@
         <v>45</v>
       </c>
       <c r="E87">
-        <v>708</v>
+        <v>384</v>
       </c>
       <c r="F87">
-        <v>6614</v>
+        <v>40</v>
       </c>
       <c r="G87">
-        <v>0.5254237288135594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>0.2</v>
+      </c>
+      <c r="I87">
+        <v>707</v>
+      </c>
+      <c r="J87">
+        <v>6624</v>
+      </c>
+      <c r="K87">
+        <v>0.5261669024045261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2413,16 +3469,28 @@
         <v>45</v>
       </c>
       <c r="E88">
-        <v>588</v>
+        <v>384</v>
       </c>
       <c r="F88">
-        <v>5278</v>
+        <v>40</v>
       </c>
       <c r="G88">
-        <v>0.5017006802721088</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H88">
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <v>587</v>
+      </c>
+      <c r="J88">
+        <v>5288</v>
+      </c>
+      <c r="K88">
+        <v>0.5025553662691652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2436,16 +3504,28 @@
         <v>45</v>
       </c>
       <c r="E89">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="F89">
-        <v>-430</v>
+        <v>40</v>
       </c>
       <c r="G89">
-        <v>0.4759916492693111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H89">
+        <v>0.2</v>
+      </c>
+      <c r="I89">
+        <v>478</v>
+      </c>
+      <c r="J89">
+        <v>-420</v>
+      </c>
+      <c r="K89">
+        <v>0.4769874476987448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2459,16 +3539,28 @@
         <v>45</v>
       </c>
       <c r="E90">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F90">
-        <v>2734</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>0.4962593516209476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H90">
+        <v>0.2</v>
+      </c>
+      <c r="I90">
+        <v>400</v>
+      </c>
+      <c r="J90">
+        <v>2744</v>
+      </c>
+      <c r="K90">
+        <v>0.4975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2482,16 +3574,28 @@
         <v>45</v>
       </c>
       <c r="E91">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="F91">
-        <v>6372</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0.5045592705167173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H91">
+        <v>0.2</v>
+      </c>
+      <c r="I91">
+        <v>328</v>
+      </c>
+      <c r="J91">
+        <v>6382</v>
+      </c>
+      <c r="K91">
+        <v>0.5060975609756098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2505,16 +3609,28 @@
         <v>45</v>
       </c>
       <c r="E92">
-        <v>2033</v>
+        <v>384</v>
       </c>
       <c r="F92">
-        <v>5172</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0.5528775209050664</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H92">
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <v>2032</v>
+      </c>
+      <c r="J92">
+        <v>5182</v>
+      </c>
+      <c r="K92">
+        <v>0.5531496062992126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2528,16 +3644,28 @@
         <v>45</v>
       </c>
       <c r="E93">
-        <v>1486</v>
+        <v>384</v>
       </c>
       <c r="F93">
-        <v>5318</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>0.5457604306864065</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H93">
+        <v>0.2</v>
+      </c>
+      <c r="I93">
+        <v>1485</v>
+      </c>
+      <c r="J93">
+        <v>5328</v>
+      </c>
+      <c r="K93">
+        <v>0.5461279461279461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2551,16 +3679,28 @@
         <v>45</v>
       </c>
       <c r="E94">
-        <v>1147</v>
+        <v>384</v>
       </c>
       <c r="F94">
-        <v>-210</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>0.5030514385353095</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>1146</v>
+      </c>
+      <c r="J94">
+        <v>-200</v>
+      </c>
+      <c r="K94">
+        <v>0.5034904013961605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2574,16 +3714,28 @@
         <v>45</v>
       </c>
       <c r="E95">
-        <v>914</v>
+        <v>384</v>
       </c>
       <c r="F95">
-        <v>3154</v>
+        <v>40</v>
       </c>
       <c r="G95">
-        <v>0.5054704595185996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H95">
+        <v>0.2</v>
+      </c>
+      <c r="I95">
+        <v>913</v>
+      </c>
+      <c r="J95">
+        <v>3164</v>
+      </c>
+      <c r="K95">
+        <v>0.5060240963855421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2597,16 +3749,28 @@
         <v>45</v>
       </c>
       <c r="E96">
-        <v>706</v>
+        <v>384</v>
       </c>
       <c r="F96">
-        <v>8554</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>0.5226628895184136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+      <c r="I96">
+        <v>705</v>
+      </c>
+      <c r="J96">
+        <v>8564</v>
+      </c>
+      <c r="K96">
+        <v>0.5234042553191489</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2620,16 +3784,28 @@
         <v>45</v>
       </c>
       <c r="E97">
-        <v>575</v>
+        <v>384</v>
       </c>
       <c r="F97">
-        <v>8400</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>0.5060869565217392</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>574</v>
+      </c>
+      <c r="J97">
+        <v>8410</v>
+      </c>
+      <c r="K97">
+        <v>0.5069686411149826</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2643,16 +3819,28 @@
         <v>45</v>
       </c>
       <c r="E98">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="F98">
-        <v>-1592</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>0.4478527607361963</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H98">
+        <v>0.2</v>
+      </c>
+      <c r="I98">
+        <v>488</v>
+      </c>
+      <c r="J98">
+        <v>-1582</v>
+      </c>
+      <c r="K98">
+        <v>0.4487704918032787</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2666,16 +3854,28 @@
         <v>45</v>
       </c>
       <c r="E99">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F99">
-        <v>3040</v>
+        <v>40</v>
       </c>
       <c r="G99">
-        <v>0.4962962962962963</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+      <c r="I99">
+        <v>404</v>
+      </c>
+      <c r="J99">
+        <v>3050</v>
+      </c>
+      <c r="K99">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2689,16 +3889,28 @@
         <v>45</v>
       </c>
       <c r="E100">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="F100">
-        <v>7570</v>
+        <v>40</v>
       </c>
       <c r="G100">
-        <v>0.4955489614243324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>0.2</v>
+      </c>
+      <c r="I100">
+        <v>336</v>
+      </c>
+      <c r="J100">
+        <v>7580</v>
+      </c>
+      <c r="K100">
+        <v>0.4970238095238095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2712,16 +3924,28 @@
         <v>45</v>
       </c>
       <c r="E101">
-        <v>2037</v>
+        <v>384</v>
       </c>
       <c r="F101">
-        <v>5154</v>
+        <v>40</v>
       </c>
       <c r="G101">
-        <v>0.5527736867943054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>0.2</v>
+      </c>
+      <c r="I101">
+        <v>2036</v>
+      </c>
+      <c r="J101">
+        <v>5164</v>
+      </c>
+      <c r="K101">
+        <v>0.5530451866404715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2735,16 +3959,28 @@
         <v>45</v>
       </c>
       <c r="E102">
-        <v>1496</v>
+        <v>384</v>
       </c>
       <c r="F102">
-        <v>5622</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>0.5461229946524064</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>0.2</v>
+      </c>
+      <c r="I102">
+        <v>1495</v>
+      </c>
+      <c r="J102">
+        <v>5632</v>
+      </c>
+      <c r="K102">
+        <v>0.5464882943143813</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2758,16 +3994,28 @@
         <v>45</v>
       </c>
       <c r="E103">
-        <v>1155</v>
+        <v>384</v>
       </c>
       <c r="F103">
-        <v>1324</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>0.5134199134199134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>0.2</v>
+      </c>
+      <c r="I103">
+        <v>1154</v>
+      </c>
+      <c r="J103">
+        <v>1334</v>
+      </c>
+      <c r="K103">
+        <v>0.5138648180242634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2781,16 +4029,28 @@
         <v>45</v>
       </c>
       <c r="E104">
-        <v>906</v>
+        <v>384</v>
       </c>
       <c r="F104">
-        <v>3926</v>
+        <v>40</v>
       </c>
       <c r="G104">
-        <v>0.5055187637969095</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+      <c r="I104">
+        <v>905</v>
+      </c>
+      <c r="J104">
+        <v>3936</v>
+      </c>
+      <c r="K104">
+        <v>0.5060773480662983</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2804,16 +4064,28 @@
         <v>45</v>
       </c>
       <c r="E105">
-        <v>700</v>
+        <v>384</v>
       </c>
       <c r="F105">
-        <v>12990</v>
+        <v>40</v>
       </c>
       <c r="G105">
-        <v>0.5457142857142857</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H105">
+        <v>0.2</v>
+      </c>
+      <c r="I105">
+        <v>699</v>
+      </c>
+      <c r="J105">
+        <v>13000</v>
+      </c>
+      <c r="K105">
+        <v>0.5464949928469242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2827,16 +4099,28 @@
         <v>45</v>
       </c>
       <c r="E106">
-        <v>579</v>
+        <v>384</v>
       </c>
       <c r="F106">
-        <v>5716</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>0.5008635578583766</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H106">
+        <v>0.2</v>
+      </c>
+      <c r="I106">
+        <v>578</v>
+      </c>
+      <c r="J106">
+        <v>5726</v>
+      </c>
+      <c r="K106">
+        <v>0.5017301038062284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2850,16 +4134,28 @@
         <v>45</v>
       </c>
       <c r="E107">
-        <v>495</v>
+        <v>384</v>
       </c>
       <c r="F107">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>0.4525252525252526</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H107">
+        <v>0.2</v>
+      </c>
+      <c r="I107">
+        <v>494</v>
+      </c>
+      <c r="J107">
+        <v>46</v>
+      </c>
+      <c r="K107">
+        <v>0.4534412955465587</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2873,16 +4169,28 @@
         <v>45</v>
       </c>
       <c r="E108">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="F108">
-        <v>5284</v>
+        <v>40</v>
       </c>
       <c r="G108">
-        <v>0.4767726161369193</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>0.2</v>
+      </c>
+      <c r="I108">
+        <v>408</v>
+      </c>
+      <c r="J108">
+        <v>5294</v>
+      </c>
+      <c r="K108">
+        <v>0.4779411764705883</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2896,16 +4204,28 @@
         <v>45</v>
       </c>
       <c r="E109">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="F109">
-        <v>7412</v>
+        <v>40</v>
       </c>
       <c r="G109">
-        <v>0.4837758112094395</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>0.2</v>
+      </c>
+      <c r="I109">
+        <v>338</v>
+      </c>
+      <c r="J109">
+        <v>7422</v>
+      </c>
+      <c r="K109">
+        <v>0.485207100591716</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2919,16 +4239,28 @@
         <v>45</v>
       </c>
       <c r="E110">
-        <v>2033</v>
+        <v>384</v>
       </c>
       <c r="F110">
-        <v>6020</v>
+        <v>40</v>
       </c>
       <c r="G110">
-        <v>0.5617314313821938</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <v>0.2</v>
+      </c>
+      <c r="I110">
+        <v>2032</v>
+      </c>
+      <c r="J110">
+        <v>6030</v>
+      </c>
+      <c r="K110">
+        <v>0.562007874015748</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2942,16 +4274,28 @@
         <v>45</v>
       </c>
       <c r="E111">
-        <v>1496</v>
+        <v>384</v>
       </c>
       <c r="F111">
-        <v>4972</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>0.5454545454545454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>0.2</v>
+      </c>
+      <c r="I111">
+        <v>1495</v>
+      </c>
+      <c r="J111">
+        <v>4982</v>
+      </c>
+      <c r="K111">
+        <v>0.545819397993311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2965,16 +4309,28 @@
         <v>45</v>
       </c>
       <c r="E112">
-        <v>1155</v>
+        <v>384</v>
       </c>
       <c r="F112">
-        <v>-864</v>
+        <v>40</v>
       </c>
       <c r="G112">
-        <v>0.5099567099567099</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+      <c r="I112">
+        <v>1154</v>
+      </c>
+      <c r="J112">
+        <v>-854</v>
+      </c>
+      <c r="K112">
+        <v>0.5103986135181976</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2988,16 +4344,28 @@
         <v>45</v>
       </c>
       <c r="E113">
-        <v>908</v>
+        <v>384</v>
       </c>
       <c r="F113">
-        <v>3266</v>
+        <v>40</v>
       </c>
       <c r="G113">
-        <v>0.4944933920704846</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+      <c r="I113">
+        <v>907</v>
+      </c>
+      <c r="J113">
+        <v>3276</v>
+      </c>
+      <c r="K113">
+        <v>0.4950385887541345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3011,16 +4379,28 @@
         <v>45</v>
       </c>
       <c r="E114">
-        <v>702</v>
+        <v>384</v>
       </c>
       <c r="F114">
-        <v>10890</v>
+        <v>40</v>
       </c>
       <c r="G114">
-        <v>0.5284900284900285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H114">
+        <v>0.2</v>
+      </c>
+      <c r="I114">
+        <v>701</v>
+      </c>
+      <c r="J114">
+        <v>10900</v>
+      </c>
+      <c r="K114">
+        <v>0.5292439372325249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3034,16 +4414,28 @@
         <v>45</v>
       </c>
       <c r="E115">
-        <v>571</v>
+        <v>384</v>
       </c>
       <c r="F115">
-        <v>13862</v>
+        <v>40</v>
       </c>
       <c r="G115">
-        <v>0.521891418563923</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H115">
+        <v>0.2</v>
+      </c>
+      <c r="I115">
+        <v>570</v>
+      </c>
+      <c r="J115">
+        <v>13872</v>
+      </c>
+      <c r="K115">
+        <v>0.5228070175438596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3057,16 +4449,28 @@
         <v>45</v>
       </c>
       <c r="E116">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="F116">
-        <v>3690</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>0.4683026584867075</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+      <c r="I116">
+        <v>488</v>
+      </c>
+      <c r="J116">
+        <v>3700</v>
+      </c>
+      <c r="K116">
+        <v>0.4692622950819672</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3080,16 +4484,28 @@
         <v>45</v>
       </c>
       <c r="E117">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="F117">
-        <v>4020</v>
+        <v>40</v>
       </c>
       <c r="G117">
-        <v>0.4578313253012048</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>0.2</v>
+      </c>
+      <c r="I117">
+        <v>414</v>
+      </c>
+      <c r="J117">
+        <v>4030</v>
+      </c>
+      <c r="K117">
+        <v>0.4589371980676328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3103,16 +4519,28 @@
         <v>45</v>
       </c>
       <c r="E118">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="F118">
-        <v>8110</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>0.4956521739130435</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+      <c r="I118">
+        <v>344</v>
+      </c>
+      <c r="J118">
+        <v>8120</v>
+      </c>
+      <c r="K118">
+        <v>0.4970930232558139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3126,16 +4554,28 @@
         <v>45</v>
       </c>
       <c r="E119">
-        <v>2039</v>
+        <v>384</v>
       </c>
       <c r="F119">
-        <v>5486</v>
+        <v>40</v>
       </c>
       <c r="G119">
-        <v>0.5546836684649338</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H119">
+        <v>0.2</v>
+      </c>
+      <c r="I119">
+        <v>2038</v>
+      </c>
+      <c r="J119">
+        <v>5496</v>
+      </c>
+      <c r="K119">
+        <v>0.5549558390578999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3149,16 +4589,28 @@
         <v>45</v>
       </c>
       <c r="E120">
-        <v>1488</v>
+        <v>384</v>
       </c>
       <c r="F120">
-        <v>7510</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>0.551747311827957</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H120">
+        <v>0.2</v>
+      </c>
+      <c r="I120">
+        <v>1487</v>
+      </c>
+      <c r="J120">
+        <v>7520</v>
+      </c>
+      <c r="K120">
+        <v>0.5521183591123067</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3172,16 +4624,28 @@
         <v>45</v>
       </c>
       <c r="E121">
-        <v>1159</v>
+        <v>384</v>
       </c>
       <c r="F121">
-        <v>-1586</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>0.4961173425366696</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="I121">
+        <v>1158</v>
+      </c>
+      <c r="J121">
+        <v>-1576</v>
+      </c>
+      <c r="K121">
+        <v>0.496545768566494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3195,16 +4659,28 @@
         <v>45</v>
       </c>
       <c r="E122">
-        <v>908</v>
+        <v>384</v>
       </c>
       <c r="F122">
-        <v>3226</v>
+        <v>40</v>
       </c>
       <c r="G122">
-        <v>0.501101321585903</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+      <c r="I122">
+        <v>907</v>
+      </c>
+      <c r="J122">
+        <v>3236</v>
+      </c>
+      <c r="K122">
+        <v>0.5016538037486218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3218,16 +4694,28 @@
         <v>45</v>
       </c>
       <c r="E123">
-        <v>714</v>
+        <v>384</v>
       </c>
       <c r="F123">
-        <v>6880</v>
+        <v>40</v>
       </c>
       <c r="G123">
-        <v>0.5014005602240896</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+      <c r="I123">
+        <v>713</v>
+      </c>
+      <c r="J123">
+        <v>6890</v>
+      </c>
+      <c r="K123">
+        <v>0.5021037868162693</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3241,16 +4729,28 @@
         <v>45</v>
       </c>
       <c r="E124">
-        <v>573</v>
+        <v>384</v>
       </c>
       <c r="F124">
-        <v>13008</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>0.5287958115183246</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H124">
+        <v>0.2</v>
+      </c>
+      <c r="I124">
+        <v>572</v>
+      </c>
+      <c r="J124">
+        <v>13018</v>
+      </c>
+      <c r="K124">
+        <v>0.5297202797202797</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3264,16 +4764,28 @@
         <v>45</v>
       </c>
       <c r="E125">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="F125">
-        <v>1698</v>
+        <v>40</v>
       </c>
       <c r="G125">
-        <v>0.466933867735471</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <v>0.2</v>
+      </c>
+      <c r="I125">
+        <v>498</v>
+      </c>
+      <c r="J125">
+        <v>1708</v>
+      </c>
+      <c r="K125">
+        <v>0.4678714859437751</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3287,16 +4799,28 @@
         <v>45</v>
       </c>
       <c r="E126">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="F126">
-        <v>-774</v>
+        <v>40</v>
       </c>
       <c r="G126">
-        <v>0.4705882352941176</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <v>0.2</v>
+      </c>
+      <c r="I126">
+        <v>424</v>
+      </c>
+      <c r="J126">
+        <v>-764</v>
+      </c>
+      <c r="K126">
+        <v>0.4716981132075472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3310,16 +4834,28 @@
         <v>45</v>
       </c>
       <c r="E127">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="F127">
-        <v>8774</v>
+        <v>40</v>
       </c>
       <c r="G127">
-        <v>0.4927113702623906</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>0.2</v>
+      </c>
+      <c r="I127">
+        <v>342</v>
+      </c>
+      <c r="J127">
+        <v>8784</v>
+      </c>
+      <c r="K127">
+        <v>0.4941520467836257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3333,16 +4869,28 @@
         <v>45</v>
       </c>
       <c r="E128">
-        <v>2045</v>
+        <v>384</v>
       </c>
       <c r="F128">
-        <v>6548</v>
+        <v>40</v>
       </c>
       <c r="G128">
-        <v>0.5550122249388753</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H128">
+        <v>0.2</v>
+      </c>
+      <c r="I128">
+        <v>2044</v>
+      </c>
+      <c r="J128">
+        <v>6558</v>
+      </c>
+      <c r="K128">
+        <v>0.5552837573385518</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3356,16 +4904,28 @@
         <v>45</v>
       </c>
       <c r="E129">
-        <v>1488</v>
+        <v>384</v>
       </c>
       <c r="F129">
-        <v>7058</v>
+        <v>40</v>
       </c>
       <c r="G129">
-        <v>0.5483870967741935</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="I129">
+        <v>1487</v>
+      </c>
+      <c r="J129">
+        <v>7068</v>
+      </c>
+      <c r="K129">
+        <v>0.5487558843308675</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3379,16 +4939,28 @@
         <v>45</v>
       </c>
       <c r="E130">
-        <v>1167</v>
+        <v>384</v>
       </c>
       <c r="F130">
-        <v>-1334</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>0.4918594687232219</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H130">
+        <v>0.2</v>
+      </c>
+      <c r="I130">
+        <v>1166</v>
+      </c>
+      <c r="J130">
+        <v>-1324</v>
+      </c>
+      <c r="K130">
+        <v>0.4922813036020583</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3402,16 +4974,28 @@
         <v>45</v>
       </c>
       <c r="E131">
-        <v>900</v>
+        <v>384</v>
       </c>
       <c r="F131">
-        <v>1632</v>
+        <v>40</v>
       </c>
       <c r="G131">
-        <v>0.5011111111111111</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+      <c r="I131">
+        <v>899</v>
+      </c>
+      <c r="J131">
+        <v>1642</v>
+      </c>
+      <c r="K131">
+        <v>0.5016685205784205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3425,16 +5009,28 @@
         <v>45</v>
       </c>
       <c r="E132">
-        <v>712</v>
+        <v>384</v>
       </c>
       <c r="F132">
-        <v>9896</v>
+        <v>40</v>
       </c>
       <c r="G132">
-        <v>0.5182584269662921</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H132">
+        <v>0.2</v>
+      </c>
+      <c r="I132">
+        <v>711</v>
+      </c>
+      <c r="J132">
+        <v>9906</v>
+      </c>
+      <c r="K132">
+        <v>0.5189873417721519</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3448,16 +5044,28 @@
         <v>45</v>
       </c>
       <c r="E133">
-        <v>588</v>
+        <v>384</v>
       </c>
       <c r="F133">
-        <v>9002</v>
+        <v>40</v>
       </c>
       <c r="G133">
-        <v>0.5170068027210885</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>0.2</v>
+      </c>
+      <c r="I133">
+        <v>587</v>
+      </c>
+      <c r="J133">
+        <v>9012</v>
+      </c>
+      <c r="K133">
+        <v>0.5178875638841567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3471,16 +5079,28 @@
         <v>45</v>
       </c>
       <c r="E134">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="F134">
-        <v>2404</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>0.462474645030426</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>0.2</v>
+      </c>
+      <c r="I134">
+        <v>492</v>
+      </c>
+      <c r="J134">
+        <v>2414</v>
+      </c>
+      <c r="K134">
+        <v>0.4634146341463415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3494,16 +5114,28 @@
         <v>45</v>
       </c>
       <c r="E135">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="F135">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="G135">
-        <v>0.4609929078014184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H135">
+        <v>0.2</v>
+      </c>
+      <c r="I135">
+        <v>422</v>
+      </c>
+      <c r="J135">
+        <v>234</v>
+      </c>
+      <c r="K135">
+        <v>0.462085308056872</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3517,16 +5149,28 @@
         <v>45</v>
       </c>
       <c r="E136">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="F136">
-        <v>4966</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>0.4700854700854701</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H136">
+        <v>0.2</v>
+      </c>
+      <c r="I136">
+        <v>350</v>
+      </c>
+      <c r="J136">
+        <v>4976</v>
+      </c>
+      <c r="K136">
+        <v>0.4714285714285714</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3540,16 +5184,28 @@
         <v>45</v>
       </c>
       <c r="E137">
-        <v>2041</v>
+        <v>384</v>
       </c>
       <c r="F137">
-        <v>6978</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>0.5595296423321902</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H137">
+        <v>0.2</v>
+      </c>
+      <c r="I137">
+        <v>2040</v>
+      </c>
+      <c r="J137">
+        <v>6988</v>
+      </c>
+      <c r="K137">
+        <v>0.5598039215686275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3563,16 +5219,28 @@
         <v>45</v>
       </c>
       <c r="E138">
-        <v>1498</v>
+        <v>384</v>
       </c>
       <c r="F138">
-        <v>6112</v>
+        <v>40</v>
       </c>
       <c r="G138">
-        <v>0.5460614152202937</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>0.2</v>
+      </c>
+      <c r="I138">
+        <v>1497</v>
+      </c>
+      <c r="J138">
+        <v>6122</v>
+      </c>
+      <c r="K138">
+        <v>0.5464261857047428</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3586,16 +5254,28 @@
         <v>45</v>
       </c>
       <c r="E139">
-        <v>1175</v>
+        <v>384</v>
       </c>
       <c r="F139">
-        <v>-2060</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>0.4902127659574468</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>0.2</v>
+      </c>
+      <c r="I139">
+        <v>1174</v>
+      </c>
+      <c r="J139">
+        <v>-2050</v>
+      </c>
+      <c r="K139">
+        <v>0.4906303236797274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3609,16 +5289,28 @@
         <v>45</v>
       </c>
       <c r="E140">
-        <v>904</v>
+        <v>384</v>
       </c>
       <c r="F140">
-        <v>3664</v>
+        <v>40</v>
       </c>
       <c r="G140">
-        <v>0.5132743362831859</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>0.2</v>
+      </c>
+      <c r="I140">
+        <v>903</v>
+      </c>
+      <c r="J140">
+        <v>3674</v>
+      </c>
+      <c r="K140">
+        <v>0.5138427464008859</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3632,16 +5324,28 @@
         <v>45</v>
       </c>
       <c r="E141">
-        <v>726</v>
+        <v>384</v>
       </c>
       <c r="F141">
-        <v>7966</v>
+        <v>40</v>
       </c>
       <c r="G141">
-        <v>0.5220385674931129</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H141">
+        <v>0.2</v>
+      </c>
+      <c r="I141">
+        <v>725</v>
+      </c>
+      <c r="J141">
+        <v>7976</v>
+      </c>
+      <c r="K141">
+        <v>0.5227586206896552</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3655,16 +5359,28 @@
         <v>45</v>
       </c>
       <c r="E142">
-        <v>600</v>
+        <v>384</v>
       </c>
       <c r="F142">
-        <v>11988</v>
+        <v>40</v>
       </c>
       <c r="G142">
-        <v>0.5183333333333333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H142">
+        <v>0.2</v>
+      </c>
+      <c r="I142">
+        <v>599</v>
+      </c>
+      <c r="J142">
+        <v>11998</v>
+      </c>
+      <c r="K142">
+        <v>0.5191986644407346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3678,16 +5394,28 @@
         <v>45</v>
       </c>
       <c r="E143">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="F143">
-        <v>3664</v>
+        <v>40</v>
       </c>
       <c r="G143">
-        <v>0.4589178356713427</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H143">
+        <v>0.2</v>
+      </c>
+      <c r="I143">
+        <v>498</v>
+      </c>
+      <c r="J143">
+        <v>3674</v>
+      </c>
+      <c r="K143">
+        <v>0.4598393574297189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3701,16 +5429,28 @@
         <v>45</v>
       </c>
       <c r="E144">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="F144">
-        <v>6170</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>0.4588235294117647</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H144">
+        <v>0.2</v>
+      </c>
+      <c r="I144">
+        <v>424</v>
+      </c>
+      <c r="J144">
+        <v>6180</v>
+      </c>
+      <c r="K144">
+        <v>0.4599056603773585</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3724,16 +5464,28 @@
         <v>45</v>
       </c>
       <c r="E145">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="F145">
-        <v>6860</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>0.4645892351274787</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H145">
+        <v>0.2</v>
+      </c>
+      <c r="I145">
+        <v>352</v>
+      </c>
+      <c r="J145">
+        <v>6870</v>
+      </c>
+      <c r="K145">
+        <v>0.4659090909090909</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3747,16 +5499,28 @@
         <v>45</v>
       </c>
       <c r="E146">
-        <v>2051</v>
+        <v>384</v>
       </c>
       <c r="F146">
-        <v>6358</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>0.5538761579717211</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>0.2</v>
+      </c>
+      <c r="I146">
+        <v>2050</v>
+      </c>
+      <c r="J146">
+        <v>6368</v>
+      </c>
+      <c r="K146">
+        <v>0.5541463414634147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3770,16 +5534,28 @@
         <v>45</v>
       </c>
       <c r="E147">
-        <v>1500</v>
+        <v>384</v>
       </c>
       <c r="F147">
-        <v>6558</v>
+        <v>40</v>
       </c>
       <c r="G147">
-        <v>0.5526666666666666</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H147">
+        <v>0.2</v>
+      </c>
+      <c r="I147">
+        <v>1499</v>
+      </c>
+      <c r="J147">
+        <v>6568</v>
+      </c>
+      <c r="K147">
+        <v>0.553035356904603</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3793,16 +5569,28 @@
         <v>45</v>
       </c>
       <c r="E148">
-        <v>1178</v>
+        <v>384</v>
       </c>
       <c r="F148">
-        <v>-1022</v>
+        <v>40</v>
       </c>
       <c r="G148">
-        <v>0.4915110356536502</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>0.2</v>
+      </c>
+      <c r="I148">
+        <v>1177</v>
+      </c>
+      <c r="J148">
+        <v>-1012</v>
+      </c>
+      <c r="K148">
+        <v>0.491928632115548</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3816,16 +5604,28 @@
         <v>45</v>
       </c>
       <c r="E149">
-        <v>902</v>
+        <v>384</v>
       </c>
       <c r="F149">
-        <v>4844</v>
+        <v>40</v>
       </c>
       <c r="G149">
-        <v>0.5033259423503326</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>0.2</v>
+      </c>
+      <c r="I149">
+        <v>901</v>
+      </c>
+      <c r="J149">
+        <v>4854</v>
+      </c>
+      <c r="K149">
+        <v>0.5038845726970034</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3839,16 +5639,28 @@
         <v>45</v>
       </c>
       <c r="E150">
-        <v>728</v>
+        <v>384</v>
       </c>
       <c r="F150">
-        <v>9266</v>
+        <v>40</v>
       </c>
       <c r="G150">
-        <v>0.5288461538461539</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H150">
+        <v>0.2</v>
+      </c>
+      <c r="I150">
+        <v>727</v>
+      </c>
+      <c r="J150">
+        <v>9276</v>
+      </c>
+      <c r="K150">
+        <v>0.5295735900962861</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3862,16 +5674,28 @@
         <v>45</v>
       </c>
       <c r="E151">
-        <v>598</v>
+        <v>384</v>
       </c>
       <c r="F151">
-        <v>7278</v>
+        <v>40</v>
       </c>
       <c r="G151">
-        <v>0.4983277591973244</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H151">
+        <v>0.2</v>
+      </c>
+      <c r="I151">
+        <v>597</v>
+      </c>
+      <c r="J151">
+        <v>7288</v>
+      </c>
+      <c r="K151">
+        <v>0.4991624790619765</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3885,16 +5709,28 @@
         <v>45</v>
       </c>
       <c r="E152">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="F152">
-        <v>3220</v>
+        <v>40</v>
       </c>
       <c r="G152">
-        <v>0.4653465346534654</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H152">
+        <v>0.2</v>
+      </c>
+      <c r="I152">
+        <v>504</v>
+      </c>
+      <c r="J152">
+        <v>3230</v>
+      </c>
+      <c r="K152">
+        <v>0.4662698412698413</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3908,16 +5744,28 @@
         <v>45</v>
       </c>
       <c r="E153">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="F153">
-        <v>7942</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>0.4633569739952719</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H153">
+        <v>0.2</v>
+      </c>
+      <c r="I153">
+        <v>422</v>
+      </c>
+      <c r="J153">
+        <v>7952</v>
+      </c>
+      <c r="K153">
+        <v>0.4644549763033176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3931,13 +5779,25 @@
         <v>45</v>
       </c>
       <c r="E154">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F154">
-        <v>6994</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>0.4484679665738162</v>
+        <v>40</v>
+      </c>
+      <c r="H154">
+        <v>0.2</v>
+      </c>
+      <c r="I154">
+        <v>358</v>
+      </c>
+      <c r="J154">
+        <v>7004</v>
+      </c>
+      <c r="K154">
+        <v>0.4497206703910615</v>
       </c>
     </row>
   </sheetData>
